--- a/config/cfg_crlc/wr_grn_cr_interp_vec_1580.xlsx
+++ b/config/cfg_crlc/wr_grn_cr_interp_vec_1580.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\cfg_crlc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\config\cfg_crlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,11 +30,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cvc_cr_mat_cvc1</t>
+    <t>cvc_cr_mat_cvc4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cvc_cr_mat_cvc4</t>
+    <t>cvc_cr_mat_cvc1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +372,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -386,10 +386,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
